--- a/xlsx/百度百科_intext.xlsx
+++ b/xlsx/百度百科_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>百度百科</t>
   </si>
@@ -29,7 +29,7 @@
     <t>百科全书</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_百度百科</t>
+    <t>政策_政策_维基百科_百度百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%BD%A6%E5%AE%8F</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>標語</t>
+    <t>标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6</t>
@@ -167,19 +167,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%85%A7%E5%AE%B9</t>
   </si>
   <si>
-    <t>自由內容</t>
+    <t>自由内容</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>著作權</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B1%94%E7%A8%BF</t>
   </si>
   <si>
-    <t>鱔稿</t>
+    <t>鳝稿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%85%BD_(%E6%81%B6%E6%90%9E)</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%89%B2%E8%AD%A6%E6%88%922%EF%BC%9A%E5%B0%A4%E9%87%8C%E7%9A%84%E5%BE%A9%E4%BB%87</t>
   </si>
   <si>
-    <t>紅色警戒2：尤里的復仇</t>
+    <t>红色警戒2：尤里的复仇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E7%94%B5%E8%A7%86%E5%8F%B0</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E7%88%86%E7%B4%85</t>
   </si>
   <si>
-    <t>網絡爆紅</t>
+    <t>网络爆红</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E6%B3%A5%E9%A9%AC</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>中文維基百科</t>
+    <t>中文维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/360%E7%99%BE%E7%A7%91</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
+    <t>维基媒体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E8%99%8E360</t>
@@ -383,15 +383,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>中文维基百科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>網絡百科全書</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E7%BA%BF%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -455,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E5%A5%87</t>
   </si>
   <si>
-    <t>陸奇</t>
+    <t>陆奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6%E6%90%9C%E7%B4%A2</t>
@@ -581,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6%E9%9F%B3%E6%A8%82%E6%92%AD%E6%94%BE%E5%99%A8</t>
   </si>
   <si>
-    <t>百度音樂播放器</t>
+    <t>百度音乐播放器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%8D%83%E9%9D%99%E5%90%AC</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>中華百科全書</t>
+    <t>中华百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MBA%E6%99%BA%E5%BA%93%E7%99%BE%E7%A7%91</t>
@@ -755,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%B2%E7%B5%A1%E5%A4%A7%E5%85%B8</t>
   </si>
   <si>
-    <t>香港網絡大典</t>
+    <t>香港网络大典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%85%B8</t>
@@ -767,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%AE%A2%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>維客中國</t>
+    <t>维客中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%BA%93</t>
@@ -779,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%A4%A9%E6%9B%B8</t>
   </si>
   <si>
-    <t>網絡天書</t>
+    <t>网络天书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AcFun</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%A4%A7%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>台灣大百科全書</t>
+    <t>台湾大百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
@@ -2943,7 +2937,7 @@
         <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G62" t="n">
         <v>13</v>
@@ -2969,10 +2963,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2998,10 +2992,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3027,10 +3021,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>15</v>
@@ -3062,7 +3056,7 @@
         <v>18</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -3085,10 +3079,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3114,10 +3108,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3143,10 +3137,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3172,10 +3166,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3201,10 +3195,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3230,10 +3224,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3259,10 +3253,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3288,10 +3282,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3317,10 +3311,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3346,10 +3340,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3375,10 +3369,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -3433,10 +3427,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3462,10 +3456,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3491,10 +3485,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -3520,10 +3514,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>10</v>
@@ -3549,10 +3543,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -3578,10 +3572,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -3607,10 +3601,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3636,10 +3630,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>6</v>
@@ -3665,10 +3659,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3694,10 +3688,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3723,10 +3717,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>8</v>
@@ -3752,10 +3746,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -3781,10 +3775,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3810,10 +3804,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3839,10 +3833,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3868,10 +3862,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3897,10 +3891,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3955,10 +3949,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3984,10 +3978,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4013,10 +4007,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4042,10 +4036,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4071,10 +4065,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -4100,10 +4094,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4129,10 +4123,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4158,10 +4152,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4187,10 +4181,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4216,10 +4210,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4245,10 +4239,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4274,10 +4268,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4303,10 +4297,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4332,10 +4326,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4361,10 +4355,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4390,10 +4384,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -4419,10 +4413,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4448,10 +4442,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4506,10 +4500,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4535,10 +4529,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4564,10 +4558,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4593,10 +4587,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4622,10 +4616,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4651,10 +4645,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4680,10 +4674,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F122" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4709,10 +4703,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4738,10 +4732,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4767,10 +4761,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4825,10 +4819,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4854,10 +4848,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4883,10 +4877,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4912,10 +4906,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4941,10 +4935,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4970,10 +4964,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -4999,10 +4993,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5028,10 +5022,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5057,10 +5051,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5086,10 +5080,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5115,10 +5109,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5144,10 +5138,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5173,10 +5167,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
